--- a/seeds/menu.xlsx
+++ b/seeds/menu.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">food_item</t>
   </si>
@@ -36,6 +36,9 @@
   <si>
     <t xml:space="preserve">Cheesecake</t>
   </si>
+  <si>
+    <t xml:space="preserve">Sushi</t>
+  </si>
 </sst>
 </file>
 
@@ -49,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -134,19 +138,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -154,24 +158,32 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>150</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
